--- a/fuentes/contenidos/grado09/guion03/SolicitudGrafica_CN_09_03_CO_REC160.xlsx
+++ b/fuentes/contenidos/grado09/guion03/SolicitudGrafica_CN_09_03_CO_REC160.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="209">
   <si>
     <t>Fecha:</t>
   </si>
@@ -593,13 +593,67 @@
     <t>Miguel Aljure</t>
   </si>
   <si>
-    <t>Fotografía</t>
-  </si>
-  <si>
     <t>La evolución y la diversidad biológica</t>
   </si>
   <si>
     <t>CN_09_03_CO_REC160</t>
+  </si>
+  <si>
+    <t>Ilustración</t>
+  </si>
+  <si>
+    <t>Neutralismo</t>
+  </si>
+  <si>
+    <t>Hacer un texto con la palabra Neutralismo</t>
+  </si>
+  <si>
+    <t>Hacer un texto con la palabra Equilibrio puntuado</t>
+  </si>
+  <si>
+    <t>Ver comentarios</t>
+  </si>
+  <si>
+    <t>Equilibrio puntuado</t>
+  </si>
+  <si>
+    <t>Hacer una imagen como esta. Que haya un poquito más de puntos en la parte de dañinas que en la de benéficas, y mucho más que todos en la de neutrales.</t>
+  </si>
+  <si>
+    <t>http://www7.uc.cl/sw_educ/biologia/bio100/imagenes/7d93dc34b4bfilenameD1310typeimagejpeg.jpg</t>
+  </si>
+  <si>
+    <t>Pájaros migrando</t>
+  </si>
+  <si>
+    <t>Hacer una imagen como la que se muestra, pero en vez de letras, usar pájaros de colores. Hacer 4 pájaros rojos, 4 azules y 4 amarillos. Y que a la isla pequeña solo vayan 2 azules y uno rojos. No poner el texto de abajo.</t>
+  </si>
+  <si>
+    <t>Boque y fuego</t>
+  </si>
+  <si>
+    <t>Hacer una ilustración como esta, pero en vez de puntos de colores, se hacen arbustos con flores, blancas, negras y moradas. Conservar la proporción y la ubicación de los puntos al hacer los arbustos (con cambios menores para que quepan, si acaso). Después de la flecha se hace un incendio que consume muchos de los arbustos (los de colores y posiciones mostrados. Es MUY importante que se usen las proporciones que muestro). Despues de otra flecha quedan los arbustos sobrevivientes, y luego de otra flecha como se reprodujeron.</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-2aGmoN2cfG0/VfgpNMshU9I/AAAAAAAAANM/EBXAkl6u9n4/s1600/CUELLO%2BDE%2BBOTELLA.png</t>
+  </si>
+  <si>
+    <t>Botellas con bolas de colores</t>
+  </si>
+  <si>
+    <t>Hacer que en la última botella se vean un poco menos de bolas amarillas. Se pueden tambien cambiar los colores amarillo y azul por otros dos.  Cambiar los textos de abajo así: Población original - Cuello de botella (muerte de gran parte de la población) - Organismos sobrevivientes - Generaciones siguientes</t>
+  </si>
+  <si>
+    <t>Hacer una balanza, y en uno de los platos dice "Selección natural", mientras que en el otro dice "Deriva genética".</t>
+  </si>
+  <si>
+    <t>Hacer la gráfica que se muestra. Notar que debajo de los puntos hay círculos blancos que cortan la línea. No hacer los puntos negros de arriban tan grandes como a mi me quedaron.</t>
+  </si>
+  <si>
+    <t>Hacer una gráfica como la que se muestra. Notar que la línea de la gráfica está muy cerca a la lína del eje tiempo.</t>
+  </si>
+  <si>
+    <t>Gráfica</t>
   </si>
 </sst>
 </file>
@@ -1762,6 +1816,201 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>364636</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3212870</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16383000" y="2798885"/>
+          <a:ext cx="5962405" cy="3212870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>639024</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1938696</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16383000" y="7209692"/>
+          <a:ext cx="5401524" cy="1938696"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>803630</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3084843</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16383000" y="13921154"/>
+          <a:ext cx="5566130" cy="3084843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>821920</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3145809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16383000" y="17394115"/>
+          <a:ext cx="5584420" cy="3145809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>828017</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>3011685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16383000" y="20735192"/>
+          <a:ext cx="5590517" cy="3011685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -2476,8 +2725,8 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="9" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2586,7 +2835,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="88"/>
       <c r="E4" s="5"/>
@@ -2675,7 +2924,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>39</v>
@@ -2765,20 +3014,20 @@
         <v>M10B</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
-      <c r="B10" s="62">
-        <v>1</v>
+      <c r="B10" s="62" t="s">
+        <v>194</v>
       </c>
       <c r="C10" s="20" t="str">
         <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso F6</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E10" s="63" t="s">
         <v>150</v>
@@ -2799,32 +3048,42 @@
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J10" s="63"/>
-      <c r="K10" s="64"/>
+      <c r="J10" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" s="64" t="s">
+        <v>192</v>
+      </c>
       <c r="O10" s="2" t="str">
         <f>'Definición técnica de imagenes'!A12</f>
         <v>M12D</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
-        <v/>
-      </c>
-      <c r="B11" s="62"/>
+        <v>IMG02</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>194</v>
+      </c>
       <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>150</v>
+      </c>
       <c r="F11" s="13" t="str">
-        <f t="shared" ref="F11:F74" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v/>
+        <f t="shared" ref="F11:F74" ca="1" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CN_09_03_CO_REC160_IMG02.jpg</v>
       </c>
       <c r="G11" s="13" t="str">
         <f ca="1">IF($F11&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>350 x 230 px</v>
       </c>
       <c r="H11" s="13" t="str">
         <f t="shared" ref="H11:H74" ca="1" si="5">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
@@ -2834,288 +3093,368 @@
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J11" s="64"/>
-      <c r="K11" s="65"/>
+      <c r="J11" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="K11" s="65" t="s">
+        <v>193</v>
+      </c>
       <c r="O11" s="2" t="str">
         <f>'Definición técnica de imagenes'!A13</f>
         <v>M101</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="333.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B12" s="62"/>
+        <v>IMG03</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>194</v>
+      </c>
       <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F12" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC160_IMG03n.jpg</v>
       </c>
       <c r="G12" s="13" t="str">
         <f ca="1">IF($F12&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H12" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC160_IMG03a.jpg</v>
       </c>
       <c r="I12" s="13" t="str">
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
+        <v>800 x 458 px</v>
       </c>
       <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
+      <c r="K12" s="64" t="s">
+        <v>196</v>
+      </c>
       <c r="O12" s="2" t="str">
         <f>'Definición técnica de imagenes'!A18</f>
         <v>Diaporama F1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B13" s="62"/>
+        <v>IMG04</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>197</v>
+      </c>
       <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F13" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC160_IMG04n.jpg</v>
       </c>
       <c r="G13" s="13" t="str">
         <f ca="1">IF($F13&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H13" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC160_IMG04a.jpg</v>
       </c>
       <c r="I13" s="13" t="str">
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J13" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="K13" s="64" t="s">
+        <v>199</v>
+      </c>
       <c r="O13" s="2" t="str">
         <f>'Definición técnica de imagenes'!A19</f>
         <v>F4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="379.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B14" s="62"/>
+        <v>IMG05</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>194</v>
+      </c>
       <c r="C14" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F14" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC160_IMG05n.jpg</v>
       </c>
       <c r="G14" s="13" t="str">
         <f ca="1">IF($F14&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H14" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC160_IMG05a.jpg</v>
       </c>
       <c r="I14" s="13" t="str">
         <f ca="1">IF(OR($B14&lt;&gt;"",$J14&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="K14" s="64" t="s">
+        <v>201</v>
+      </c>
       <c r="O14" s="2" t="str">
         <f>'Definición técnica de imagenes'!A22</f>
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B15" s="62"/>
+        <v>IMG06</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>202</v>
+      </c>
       <c r="C15" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F15" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC160_IMG06n.jpg</v>
       </c>
       <c r="G15" s="13" t="str">
         <f ca="1">IF($F15&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H15" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC160_IMG06a.jpg</v>
       </c>
       <c r="I15" s="13" t="str">
         <f ca="1">IF(OR($B15&lt;&gt;"",$J15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J15" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="K15" s="66" t="s">
+        <v>204</v>
+      </c>
       <c r="O15" s="2" t="str">
         <f>'Definición técnica de imagenes'!A24</f>
         <v>F6B</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B16" s="62"/>
+        <v>IMG07</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>194</v>
+      </c>
       <c r="C16" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F16" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC160_IMG07n.jpg</v>
       </c>
       <c r="G16" s="13" t="str">
         <f ca="1">IF($F16&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H16" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC160_IMG07a.jpg</v>
       </c>
       <c r="I16" s="13" t="str">
         <f ca="1">IF(OR($B16&lt;&gt;"",$J16&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
+        <v>800 x 458 px</v>
       </c>
       <c r="J16" s="67"/>
-      <c r="K16" s="64"/>
+      <c r="K16" s="64" t="s">
+        <v>205</v>
+      </c>
       <c r="O16" s="2" t="str">
         <f>'Definición técnica de imagenes'!A25</f>
         <v>F7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B17" s="62"/>
+        <v>IMG08</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>194</v>
+      </c>
       <c r="C17" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F17" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC160_IMG08n.jpg</v>
       </c>
       <c r="G17" s="13" t="str">
         <f ca="1">IF($F17&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H17" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC160_IMG08a.jpg</v>
       </c>
       <c r="I17" s="13" t="str">
         <f ca="1">IF(OR($B17&lt;&gt;"",$J17&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J17" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="K17" s="66" t="s">
+        <v>207</v>
+      </c>
       <c r="O17" s="2" t="str">
         <f>'Definición técnica de imagenes'!A27</f>
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="262.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B18" s="62"/>
+        <v>IMG09</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>194</v>
+      </c>
       <c r="C18" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F18" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC160_IMG09n.jpg</v>
       </c>
       <c r="G18" s="13" t="str">
         <f ca="1">IF($F18&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H18" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC160_IMG09a.jpg</v>
       </c>
       <c r="I18" s="13" t="str">
         <f ca="1">IF(OR($B18&lt;&gt;"",$J18&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J18" s="66"/>
-      <c r="K18" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J18" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="K18" s="64" t="s">
+        <v>206</v>
+      </c>
       <c r="O18" s="2" t="str">
         <f>'Definición técnica de imagenes'!A30</f>
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="303" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
-        <v/>
-      </c>
-      <c r="B19" s="62"/>
+        <v>IMG10</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>194</v>
+      </c>
       <c r="C19" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F19" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC160_IMG10n.jpg</v>
       </c>
       <c r="G19" s="13" t="str">
         <f ca="1">IF($F19&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H19" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC160_IMG10a.jpg</v>
       </c>
       <c r="I19" s="13" t="str">
         <f ca="1">IF(OR($B19&lt;&gt;"",$J19&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J19" s="67"/>
-      <c r="K19" s="68"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J19" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="K19" s="68" t="s">
+        <v>206</v>
+      </c>
       <c r="O19" s="2" t="str">
         <f>'Definición técnica de imagenes'!A31</f>
         <v>F10</v>
@@ -5948,6 +6287,7 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
